--- a/biology/Zoologie/Adelpha_nea/Adelpha_nea.xlsx
+++ b/biology/Zoologie/Adelpha_nea/Adelpha_nea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adelpha nea  est une espèce de papillons de la famille des Nymphalidae, sous famille des Limenitidinae et du genre Adelpha.
 </t>
@@ -511,14 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelpha nea a été décrit par William Chapman Hewitson en 1847 sous le nom Heterochroa nea[1].
-Sous-espèces
-Adelpha nea nea
-Adelpha nea sentia Godman &amp; Salvin, [1884][1].
-Noms vernaculaires
-Adelpha nea nea se nomme en anglais Nea Sister et Adelpha nea sentia Santia Sister[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha nea a été décrit par William Chapman Hewitson en 1847 sous le nom Heterochroa nea.
 </t>
         </is>
       </c>
@@ -544,10 +553,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Adelpha nea nea
+Adelpha nea sentia Godman &amp; Salvin, .</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Adelpha_nea</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_nea</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha nea nea se nomme en anglais Nea Sister et Adelpha nea sentia Santia Sister.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Adelpha_nea</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_nea</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Adelpha nea est un papillon à bord externe des ailes antérieures concave. Le dessus est marron roux avec aux ailes antérieures une tache jaune à l'apex et une bande soit jaune soit blanche allant jusqu'au bord interne alors qu'aux ailes postérieures la bande qui va du milieu du bord costal au bord interne près de l'angle anal est blanche.
 Le revers est plus clair, blanc avec des veines, des bandes et des damiers marron roux.
@@ -555,68 +640,109 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Adelpha_nea</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Adelpha_nea</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Miconia[1].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Miconia.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Adelpha_nea</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Adelpha_nea</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelpha nea est présent au Mexique, en Amérique Centrale du Costa Rica au Venezuela, en Colombie, en Guyane, en Guyana, Brésil et au Pérou[1],[2]. 
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha nea est présent au Mexique, en Amérique Centrale du Costa Rica au Venezuela, en Colombie, en Guyane, en Guyana, Brésil et au Pérou,. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Adelpha_nea</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_nea</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Adelpha nea, sur Wikimedia CommonsAdelpha nea, sur Wikispecies
 </t>
